--- a/biology/Botanique/Cineraria/Cineraria.xlsx
+++ b/biology/Botanique/Cineraria/Cineraria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cineraria est un genre de plantes à fleurs de la famille des Asteraceae. Il est généralement considéré à l'heure actuelle comme constitué de près de 50 espèces originaires d'Afrique du Sud.Le genre inclut des plantes herbacées ainsi que de petits sous-arbrisseaux.
 Auparavant, le genre comprenait aussi des espèces originaires des îles Canaries et de Madère qui ont été transférées dans le genre Pericallis.
@@ -512,7 +524,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Cineraria abyssinica Sch.Bip. ex A.Rich.
@@ -537,7 +551,7 @@
 Cineraria huilensis Cron
 Cineraria lobata L'Hér.
 Cineraria longipes S.Moore
-Cineraria lyratiformis Cron[1].
+Cineraria lyratiformis Cron.
 Cineraria lyrata DC.
 Cineraria magnicephala Cron
 Cineraria mazoensis S.Moore
